--- a/CashFlow/DRI_cashflow.xlsx
+++ b/CashFlow/DRI_cashflow.xlsx
@@ -762,19 +762,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>200100000.0</v>
+        <v>614800000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>168000000.0</v>
+        <v>656800000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>167700000.0</v>
+        <v>440600000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-13900000.0</v>
+        <v>432200000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-20000000.0</v>
+        <v>227300000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-2800000.0</v>
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-106700000.0</v>
+        <v>973000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-88100000.0</v>
+        <v>1094000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-68000000.0</v>
+        <v>857700000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-95100000.0</v>
+        <v>577200000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>9800000.0</v>
+        <v>343900000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1100000.0</v>
